--- a/DatasetTemplate/dataset_description.xlsx
+++ b/DatasetTemplate/dataset_description.xlsx
@@ -206,7 +206,7 @@
     <t>Value 3</t>
   </si>
   <si>
-    <t>Additional Values…</t>
+    <t>Additional Values</t>
   </si>
 </sst>
 </file>
